--- a/app/help/help_元ネタ.xlsx
+++ b/app/help/help_元ネタ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="8" r:id="rId1"/>
@@ -638,27 +638,9 @@
     <t xml:space="preserve">- オフでも実行  </t>
   </si>
   <si>
-    <t xml:space="preserve">  ネットワークの状態に関係なく同期を開始できます</t>
-  </si>
-  <si>
     <t xml:space="preserve">- APに接続されている時  </t>
   </si>
   <si>
-    <t xml:space="preserve">  アクセスポイントに接続していれば同期を開始できます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- プライベートIPアドレス  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IPアドレスがプライベートアドレスの時に同期を開始できます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- IPアドレスリスト  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">同期を開始できるIPアドレスを指定できます。  </t>
-  </si>
-  <si>
     <t>フィルターはワイルドカードが使用できます。 (例:192.168.100.\*, 192.168.\*.\*)</t>
   </si>
   <si>
@@ -1376,24 +1358,9 @@
     <t>You can always start syncing</t>
   </si>
   <si>
-    <t xml:space="preserve">- Conn to any AP  </t>
-  </si>
-  <si>
     <t>Sync can start if the wireless LAN is connected to the any access point.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Has private address  </t>
-  </si>
-  <si>
-    <t>You can start synchronization when the IP address is a private address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- IP Address List  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can start syncing only if the WiFi IP address matches one of the specified addresses. You can also directly add the current IP address your device is connected to through the IP selection list.  </t>
-  </si>
-  <si>
     <t>You can use wildcards for the filter. (e.g: 192.168.100.\*, 192.168.\*.\*.)</t>
   </si>
   <si>
@@ -2009,27 +1976,6 @@
     <t xml:space="preserve">- Auch im ausgeschalteten Zustand ausführen  </t>
   </si>
   <si>
-    <t xml:space="preserve">  Sie können immer die Synchronisierung starten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Conn mit einem beliebigen AP  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Die Synchronisierung kann starten, wenn das drahtlose LAN mit einem beliebigen Zugangspunkt verbunden ist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hat eine private Adresse  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sie können die Synchronisierung starten, wenn die IP-Adresse eine private Adresse ist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- IP-Adressliste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sie können die Synchronisierung nur starten, wenn die WiFi-IP-Adresse mit einer der angegebenen Adressen übereinstimmt. Sie können auch die aktuelle IP-Adresse, mit der Ihr Gerät verbunden ist, direkt über die IP-Auswahlliste hinzufügen.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Sie können Wildcards für den Filter verwenden. (z. B.: 192.168.100.\*, 192.168.\*.\*.)</t>
   </si>
   <si>
@@ -2642,27 +2588,6 @@
     <t xml:space="preserve">- Même si  Wifi éteint  </t>
   </si>
   <si>
-    <t xml:space="preserve">  Vous pouvez toujours commencer à synchroniser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Tous les  réseaux  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La synchronisation peut démarrer si le réseau local sans fil est connecté à un point d'accès quelconque.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Wifi  avec IP privée  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Vous pouvez lancer la synchronisation lorsque l'adresse IP est une adresse privée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Liste d'adresses IP  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Vous ne pouvez commencer la synchronisation que si l'adresse IP WiFi correspond à l'une des adresses spécifiées. Vous pouvez également ajouter directement l'adresse IP actuelle à laquelle votre appareil est connecté via la liste de sélection des adresses IP.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Vous pouvez utiliser des jokers pour le filtre. (par exemple : 192.168.100.\*, 192.168.\*.\*.)</t>
   </si>
   <si>
@@ -3287,27 +3212,6 @@
     <t xml:space="preserve">- Esegui anche quando sei fuori  </t>
   </si>
   <si>
-    <t xml:space="preserve">  È sempre possibile iniziare la sincronizzazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Connessione a qualsiasi AP  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La sincronizzazione può iniziare se la LAN wireless è collegata a qualsiasi punto di accesso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Ha un indirizzo privato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  È possibile avviare la sincronizzazione quando l'indirizzo IP è un indirizzo privato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Elenco indirizzi IP  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  La sincronizzazione può iniziare solo se l'indirizzo IP WiFi corrisponde a uno degli indirizzi specificati. È inoltre possibile aggiungere direttamente l'indirizzo IP corrente al quale il dispositivo è collegato attraverso l'elenco di selezione IP.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  È possibile utilizzare i caratteri jolly per il filtro. (ad esempio: 192.168.100.\*, 192.168.\*.\*.*).</t>
   </si>
   <si>
@@ -3944,27 +3848,6 @@
     <t xml:space="preserve">- Выполнить,  даже когда офлайн  </t>
   </si>
   <si>
-    <t xml:space="preserve">  Вы всегда можете начать синхронизацию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Подключаться  к любой точке доступа  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Синхронизация может начаться, если беспроводная сеть подключена к любой точке доступа.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Имеет  частный адрес  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Вы можете начать синхронизацию, когда IP-адрес является личным адресом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- список IP-адресов  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Синхронизацию можно начать только в том случае, если IP-адрес WiFi совпадает с одним из указанных адресов. Вы также можете напрямую добавить текущий IP-адрес, к которому подключено ваше устройство через список выбора IP-адресов.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Для фильтра можно использовать подстановочные знаки. (например: 192.168.100.\*, 192.168.\*.\*).</t>
   </si>
   <si>
@@ -4553,27 +4436,9 @@
     <t xml:space="preserve">### 网络  </t>
   </si>
   <si>
-    <t xml:space="preserve">  您只能在充电时开始同步。 在未充电时启动动机将导致错误并中止后续同步任务的启动。</t>
-  </si>
-  <si>
     <t xml:space="preserve">- 当您连接到AP时  </t>
   </si>
   <si>
-    <t xml:space="preserve">  如果你连接到一个接入点，你可以开始同步。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 私人IP地址  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  当IP地址为私人地址时，可以开始同步。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- IP地址列表  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  您可以指定IP地址来开始同步。 </t>
-  </si>
-  <si>
     <t xml:space="preserve">  您可以使用通配符作为过滤器。(例如：192.168.100.\*，192.168.\*。 \*)</t>
   </si>
   <si>
@@ -5523,6 +5388,141 @@
   </si>
   <si>
     <t>- 毎時は0時、1時、2時等のように一時間毎に実行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- プライベートIPアドレスだけ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- IPアドレスリストに登録されいる  </t>
+  </si>
+  <si>
+    <t>IPアドレスがプライベートアドレスの時に同期を開始できます</t>
+  </si>
+  <si>
+    <t>アクセスポイントに接続していれば同期を開始できます</t>
+  </si>
+  <si>
+    <t>ネットワークの状態に関係なく同期を開始できます</t>
+  </si>
+  <si>
+    <t>Sie können immer die Synchronisierung starten</t>
+  </si>
+  <si>
+    <t>Vous pouvez toujours commencer à synchroniser</t>
+  </si>
+  <si>
+    <t>È sempre possibile iniziare la sincronizzazione</t>
+  </si>
+  <si>
+    <t>Вы всегда можете начать синхронизацию</t>
+  </si>
+  <si>
+    <t>您只能在充电时开始同步。 在未充电时启动动机将导致错误并中止后续同步任务的启动。</t>
+  </si>
+  <si>
+    <t>Die Synchronisierung kann starten, wenn das drahtlose LAN mit einem beliebigen Zugangspunkt verbunden ist.</t>
+  </si>
+  <si>
+    <t>La synchronisation peut démarrer si le réseau local sans fil est connecté à un point d'accès quelconque.</t>
+  </si>
+  <si>
+    <t>La sincronizzazione può iniziare se la LAN wireless è collegata a qualsiasi punto di accesso.</t>
+  </si>
+  <si>
+    <t>Синхронизация может начаться, если беспроводная сеть подключена к любой точке доступа.</t>
+  </si>
+  <si>
+    <t>如果你连接到一个接入点，你可以开始同步。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPアドレスリストに登録されているIPアドレスリストの時に同期を開始できます。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Private IP address only  </t>
+  </si>
+  <si>
+    <t>Synchronization can be started when the IP address is a private address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Registered in the IP address list  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can start synchronization when the IP address is registered in the IP address list.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Nur private IP-Adresse  </t>
+  </si>
+  <si>
+    <t>Die Synchronisation kann gestartet werden, wenn die IP-Adresse eine private Adresse ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Registriert in der IP-Adressliste  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie können die Synchronisation starten, wenn die IP-Adresse in der IP-Adressliste registriert ist.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Adresse IP privée uniquement  </t>
+  </si>
+  <si>
+    <t>La synchronisation peut être lancée lorsque l'adresse IP est une adresse privée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Enregistré dans la liste des adresses IP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous pouvez lancer la synchronisation lorsque l'adresse IP est enregistrée dans la liste des adresses IP.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Solo indirizzo IP privato  </t>
+  </si>
+  <si>
+    <t>La sincronizzazione può essere avviata quando l'indirizzo IP è un indirizzo privato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Registrato nell'elenco degli indirizzi IP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">È possibile avviare la sincronizzazione quando l'indirizzo IP è registrato nell'elenco degli indirizzi IP.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Только частный IP-адрес  </t>
+  </si>
+  <si>
+    <t>Синхронизация может быть запущена, когда IP-адрес является личным адресом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Зарегистрирован в списке IP-адресов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы можете начать синхронизацию, когда IP-адрес зарегистрирован в списке IP-адресов.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 仅限私人IP地址  </t>
+  </si>
+  <si>
+    <t>当IP地址是私人地址时，可以开始同步。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 在IP地址列表中注册  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在IP地址列表中注册了IP地址，就可以开始同步。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- When connected to AP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Wenn mit AP verbunden  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lorsqu'il est connecté à l'AP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Quando è collegato all'AP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- При подключении к точке доступа  </t>
   </si>
 </sst>
 </file>
@@ -6061,11 +6061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6077,7 +6077,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>1764</v>
+        <v>1719</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -6106,25 +6106,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6132,22 +6132,22 @@
         <v>156</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1267</v>
+        <v>1235</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1463</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6161,25 +6161,25 @@
     </row>
     <row r="5" spans="1:7" ht="135">
       <c r="A5" s="9" t="s">
-        <v>1761</v>
+        <v>1716</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1268</v>
+        <v>1236</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1464</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6196,22 +6196,22 @@
         <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1269</v>
+        <v>1237</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1465</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6228,22 +6228,22 @@
         <v>158</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1270</v>
+        <v>1238</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1466</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6260,22 +6260,22 @@
         <v>159</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1271</v>
+        <v>1239</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1467</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6292,22 +6292,22 @@
         <v>160</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1272</v>
+        <v>1240</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1468</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6324,22 +6324,22 @@
         <v>161</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1273</v>
+        <v>1241</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1469</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="75">
@@ -6347,22 +6347,22 @@
         <v>162</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1274</v>
+        <v>1242</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1470</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6370,22 +6370,22 @@
         <v>163</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1721</v>
+        <v>1676</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1728</v>
+        <v>1683</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1727</v>
+        <v>1682</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1721</v>
+        <v>1676</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1726</v>
+        <v>1681</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1725</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="105">
@@ -6393,22 +6393,22 @@
         <v>164</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1626</v>
+        <v>1581</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1630</v>
+        <v>1585</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1629</v>
+        <v>1584</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1628</v>
+        <v>1583</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1627</v>
+        <v>1582</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1471</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6425,22 +6425,22 @@
         <v>165</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1722</v>
+        <v>1677</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1729</v>
+        <v>1684</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1730</v>
+        <v>1685</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1731</v>
+        <v>1686</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1732</v>
+        <v>1687</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>1472</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6454,25 +6454,25 @@
     </row>
     <row r="22" spans="1:7" ht="150">
       <c r="A22" s="9" t="s">
-        <v>1760</v>
+        <v>1715</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1754</v>
+        <v>1709</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1759</v>
+        <v>1714</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1758</v>
+        <v>1713</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1755</v>
+        <v>1710</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1756</v>
+        <v>1711</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>1757</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6489,22 +6489,22 @@
         <v>166</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1723</v>
+        <v>1678</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1733</v>
+        <v>1688</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1734</v>
+        <v>1689</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1735</v>
+        <v>1690</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1736</v>
+        <v>1691</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>1473</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -6512,22 +6512,22 @@
         <v>167</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1631</v>
+        <v>1586</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1635</v>
+        <v>1590</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1634</v>
+        <v>1589</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1633</v>
+        <v>1588</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1632</v>
+        <v>1587</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1474</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6544,22 +6544,22 @@
         <v>168</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1724</v>
+        <v>1679</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1737</v>
+        <v>1692</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1724</v>
+        <v>1679</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1738</v>
+        <v>1693</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1739</v>
+        <v>1694</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1475</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="120">
@@ -6567,22 +6567,22 @@
         <v>169</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1636</v>
+        <v>1591</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1637</v>
+        <v>1592</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1638</v>
+        <v>1593</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1639</v>
+        <v>1594</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1640</v>
+        <v>1595</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>1476</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6599,22 +6599,22 @@
         <v>170</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1641</v>
+        <v>1596</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1645</v>
+        <v>1600</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1644</v>
+        <v>1599</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1643</v>
+        <v>1598</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1642</v>
+        <v>1597</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>1477</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6631,22 +6631,22 @@
         <v>171</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1646</v>
+        <v>1601</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1649</v>
+        <v>1604</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1652</v>
+        <v>1607</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1655</v>
+        <v>1610</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1658</v>
+        <v>1613</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>1478</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6654,22 +6654,22 @@
         <v>172</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1647</v>
+        <v>1602</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1650</v>
+        <v>1605</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1653</v>
+        <v>1608</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1656</v>
+        <v>1611</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1659</v>
+        <v>1614</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1479</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="90">
@@ -6677,22 +6677,22 @@
         <v>173</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1648</v>
+        <v>1603</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1651</v>
+        <v>1606</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1654</v>
+        <v>1609</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1657</v>
+        <v>1612</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1660</v>
+        <v>1615</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>1480</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6709,22 +6709,22 @@
         <v>174</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1275</v>
+        <v>1243</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1481</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
@@ -6732,22 +6732,22 @@
         <v>175</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1276</v>
+        <v>1244</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1482</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6764,22 +6764,22 @@
         <v>176</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1277</v>
+        <v>1245</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1483</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6796,22 +6796,22 @@
         <v>177</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1278</v>
+        <v>1246</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1484</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6828,22 +6828,22 @@
         <v>178</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1279</v>
+        <v>1247</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1485</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6860,22 +6860,22 @@
         <v>179</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1280</v>
+        <v>1248</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1486</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6892,22 +6892,22 @@
         <v>180</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1281</v>
+        <v>1249</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1487</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60">
@@ -6915,22 +6915,22 @@
         <v>181</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>1282</v>
+        <v>1250</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1488</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6938,22 +6938,22 @@
         <v>182</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1283</v>
+        <v>1251</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1489</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45">
@@ -6961,45 +6961,45 @@
         <v>183</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>1284</v>
+        <v>1252</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>1743</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45">
       <c r="A51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1740</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7007,22 +7007,22 @@
         <v>184</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>1285</v>
+        <v>1253</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>1490</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45">
@@ -7030,45 +7030,45 @@
         <v>183</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1284</v>
+        <v>1252</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1743</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45">
       <c r="A54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -7076,22 +7076,22 @@
         <v>185</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>1286</v>
+        <v>1254</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1491</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60">
@@ -7099,22 +7099,22 @@
         <v>183</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>1284</v>
+        <v>1252</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>1743</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30">
@@ -7122,22 +7122,22 @@
         <v>186</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1742</v>
+        <v>1697</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1742</v>
+        <v>1697</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1742</v>
+        <v>1697</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>1742</v>
+        <v>1697</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>1742</v>
+        <v>1697</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1742</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7145,22 +7145,22 @@
         <v>187</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1287</v>
+        <v>1255</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1492</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60">
@@ -7168,22 +7168,22 @@
         <v>188</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1288</v>
+        <v>1256</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1493</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -7200,22 +7200,22 @@
         <v>189</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1289</v>
+        <v>1257</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1494</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -7232,22 +7232,22 @@
         <v>190</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1290</v>
+        <v>1258</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1495</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -7264,22 +7264,22 @@
         <v>191</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1291</v>
+        <v>1259</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>1496</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="45">
@@ -7287,22 +7287,22 @@
         <v>192</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1292</v>
+        <v>1260</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>1497</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30">
@@ -7310,22 +7310,22 @@
         <v>193</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1293</v>
+        <v>1261</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>1498</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7342,22 +7342,22 @@
         <v>194</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>1294</v>
+        <v>1262</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>1499</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7374,22 +7374,22 @@
         <v>195</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>1295</v>
+        <v>1263</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>1500</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7406,22 +7406,22 @@
         <v>196</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>1296</v>
+        <v>1264</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1501</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7438,22 +7438,22 @@
         <v>197</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1661</v>
+        <v>1616</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>1297</v>
+        <v>1265</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>1502</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7470,22 +7470,22 @@
         <v>198</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1298</v>
+        <v>1266</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1503</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7502,22 +7502,22 @@
         <v>199</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1299</v>
+        <v>1267</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1504</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7534,22 +7534,22 @@
         <v>200</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1300</v>
+        <v>1268</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>1505</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7557,45 +7557,45 @@
         <v>201</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1301</v>
+        <v>1269</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>1506</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45">
       <c r="A83" s="6" t="s">
-        <v>1751</v>
+        <v>1706</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1749</v>
+        <v>1704</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1748</v>
+        <v>1703</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1747</v>
+        <v>1702</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>1746</v>
+        <v>1701</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>1753</v>
+        <v>1708</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>1744</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60">
@@ -7603,68 +7603,68 @@
         <v>202</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1302</v>
+        <v>1270</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>1507</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="60">
       <c r="A85" s="6" t="s">
-        <v>1750</v>
+        <v>1705</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>1303</v>
+        <v>1271</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1745</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="75">
       <c r="A86" s="9" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1304</v>
+        <v>1272</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>1508</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7681,22 +7681,22 @@
         <v>203</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1305</v>
+        <v>1273</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>1509</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7713,206 +7713,206 @@
         <v>204</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>1306</v>
+        <v>1274</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>1752</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45">
       <c r="A91" s="9" t="s">
-        <v>205</v>
+        <v>1793</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>662</v>
+        <v>1794</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>873</v>
+        <v>1795</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1088</v>
+        <v>1796</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1307</v>
+        <v>1797</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>1510</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>451</v>
+        <v>1829</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>663</v>
+        <v>1830</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>874</v>
+        <v>1831</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1089</v>
+        <v>1832</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>1308</v>
+        <v>1833</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>1511</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45">
       <c r="A93" s="9" t="s">
-        <v>207</v>
+        <v>1792</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>664</v>
+        <v>1799</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>875</v>
+        <v>1800</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1090</v>
+        <v>1801</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1309</v>
+        <v>1802</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>1512</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>208</v>
+        <v>1789</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>453</v>
+        <v>1805</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>665</v>
+        <v>1809</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>876</v>
+        <v>1813</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>1091</v>
+        <v>1817</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>1310</v>
+        <v>1821</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1513</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="45">
       <c r="A95" s="9" t="s">
-        <v>209</v>
+        <v>1791</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>454</v>
+        <v>1806</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>666</v>
+        <v>1810</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>877</v>
+        <v>1814</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1092</v>
+        <v>1818</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>1311</v>
+        <v>1822</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>1514</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="6" t="s">
-        <v>210</v>
+        <v>1790</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>455</v>
+        <v>1807</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>667</v>
+        <v>1811</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>878</v>
+        <v>1815</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>1093</v>
+        <v>1819</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>1312</v>
+        <v>1823</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="120">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45">
       <c r="A97" s="9" t="s">
-        <v>211</v>
+        <v>1804</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>456</v>
+        <v>1808</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>668</v>
+        <v>1812</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>879</v>
+        <v>1816</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>1094</v>
+        <v>1820</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1313</v>
+        <v>1824</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>1516</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="45">
       <c r="A98" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>1095</v>
+        <v>1063</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1314</v>
+        <v>1275</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>1517</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7926,25 +7926,25 @@
     </row>
     <row r="100" spans="1:7" ht="45">
       <c r="A100" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1096</v>
+        <v>1064</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1315</v>
+        <v>1276</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>1518</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7958,48 +7958,48 @@
     </row>
     <row r="102" spans="1:7" ht="45">
       <c r="A102" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1097</v>
+        <v>1065</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1316</v>
+        <v>1277</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>1519</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1098</v>
+        <v>1066</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1317</v>
+        <v>1278</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>1520</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8013,71 +8013,71 @@
     </row>
     <row r="105" spans="1:7" ht="30">
       <c r="A105" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>1099</v>
+        <v>1067</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1318</v>
+        <v>1279</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>1521</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1319</v>
+        <v>1280</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>1522</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="75">
       <c r="A107" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1320</v>
+        <v>1281</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>1523</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8091,48 +8091,48 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1321</v>
+        <v>1282</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>1524</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="90">
       <c r="A110" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>1103</v>
+        <v>1071</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1322</v>
+        <v>1283</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1525</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8146,48 +8146,48 @@
     </row>
     <row r="112" spans="1:7" ht="30">
       <c r="A112" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>1104</v>
+        <v>1072</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1323</v>
+        <v>1284</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1526</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="150">
       <c r="A113" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1324</v>
+        <v>1285</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>1527</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8201,48 +8201,48 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>1106</v>
+        <v>1074</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1325</v>
+        <v>1286</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>1528</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="150">
       <c r="A116" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>1107</v>
+        <v>1075</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1326</v>
+        <v>1287</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>1529</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8256,48 +8256,48 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1108</v>
+        <v>1076</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1327</v>
+        <v>1288</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>1530</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="75">
       <c r="A119" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>1109</v>
+        <v>1077</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1328</v>
+        <v>1289</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>1531</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8311,48 +8311,48 @@
     </row>
     <row r="121" spans="1:7" ht="45">
       <c r="A121" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>1110</v>
+        <v>1078</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1329</v>
+        <v>1290</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="60">
       <c r="A122" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>1111</v>
+        <v>1079</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1330</v>
+        <v>1291</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8366,48 +8366,48 @@
     </row>
     <row r="124" spans="1:7" ht="45">
       <c r="A124" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1112</v>
+        <v>1080</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1331</v>
+        <v>1292</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="120">
       <c r="A125" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1142</v>
+        <v>1110</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1332</v>
+        <v>1293</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1535</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8421,25 +8421,25 @@
     </row>
     <row r="127" spans="1:7" ht="45">
       <c r="A127" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>1113</v>
+        <v>1081</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>1333</v>
+        <v>1294</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>1536</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8453,48 +8453,48 @@
     </row>
     <row r="129" spans="1:7" ht="105">
       <c r="A129" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>1334</v>
+        <v>1295</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1537</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="120">
       <c r="A130" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>1115</v>
+        <v>1083</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>1335</v>
+        <v>1296</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>1538</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8508,25 +8508,25 @@
     </row>
     <row r="132" spans="1:7" ht="45">
       <c r="A132" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>1116</v>
+        <v>1084</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1336</v>
+        <v>1297</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>1539</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8540,25 +8540,25 @@
     </row>
     <row r="134" spans="1:7" ht="60">
       <c r="A134" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>1117</v>
+        <v>1085</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1337</v>
+        <v>1298</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>1540</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8572,25 +8572,25 @@
     </row>
     <row r="136" spans="1:7" ht="60">
       <c r="A136" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>1118</v>
+        <v>1086</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1338</v>
+        <v>1299</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1541</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8604,25 +8604,25 @@
     </row>
     <row r="138" spans="1:7" ht="225">
       <c r="A138" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>1119</v>
+        <v>1087</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1339</v>
+        <v>1300</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>1542</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8636,25 +8636,25 @@
     </row>
     <row r="140" spans="1:7" ht="45">
       <c r="A140" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1340</v>
+        <v>1301</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>1543</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8668,71 +8668,71 @@
     </row>
     <row r="142" spans="1:7" ht="60">
       <c r="A142" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>1121</v>
+        <v>1089</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>1341</v>
+        <v>1302</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>1544</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="60">
       <c r="A143" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>1122</v>
+        <v>1090</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>1342</v>
+        <v>1303</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>1545</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="75">
       <c r="A144" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1123</v>
+        <v>1091</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>1343</v>
+        <v>1304</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>1546</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8746,48 +8746,48 @@
     </row>
     <row r="146" spans="1:7" ht="45">
       <c r="A146" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>1344</v>
+        <v>1305</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>1547</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="60">
       <c r="A147" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>1345</v>
+        <v>1306</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1548</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8801,48 +8801,48 @@
     </row>
     <row r="149" spans="1:7" ht="45">
       <c r="A149" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>1346</v>
+        <v>1307</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>1549</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="195">
       <c r="A150" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>1127</v>
+        <v>1095</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>1550</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8856,48 +8856,48 @@
     </row>
     <row r="152" spans="1:7" ht="60">
       <c r="A152" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>1348</v>
+        <v>1309</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>1551</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="330">
       <c r="A153" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1349</v>
+        <v>1310</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>1552</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8911,48 +8911,48 @@
     </row>
     <row r="155" spans="1:7" ht="45">
       <c r="A155" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1350</v>
+        <v>1311</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>1553</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="135">
       <c r="A156" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>1554</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8966,48 +8966,48 @@
     </row>
     <row r="158" spans="1:7" ht="90">
       <c r="A158" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>1555</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="90">
       <c r="A159" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1353</v>
+        <v>1314</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>1556</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9021,48 +9021,48 @@
     </row>
     <row r="161" spans="1:7" ht="60">
       <c r="A161" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>1354</v>
+        <v>1315</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>1557</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="60">
       <c r="A162" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>921</v>
+        <v>896</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1355</v>
+        <v>1316</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>1558</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9076,48 +9076,48 @@
     </row>
     <row r="164" spans="1:7" ht="60">
       <c r="A164" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>1136</v>
+        <v>1104</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1356</v>
+        <v>1317</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>1559</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="60">
       <c r="A165" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>1137</v>
+        <v>1105</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>1560</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9131,48 +9131,48 @@
     </row>
     <row r="167" spans="1:7" ht="60">
       <c r="A167" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>1138</v>
+        <v>1106</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>1561</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="105">
       <c r="A168" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1359</v>
+        <v>1320</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>1562</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9186,48 +9186,48 @@
     </row>
     <row r="170" spans="1:7" ht="45">
       <c r="A170" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>926</v>
+        <v>901</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>1140</v>
+        <v>1108</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>1360</v>
+        <v>1321</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>1563</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="45">
       <c r="A171" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>1141</v>
+        <v>1109</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>1564</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
@@ -9255,7 +9255,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>1765</v>
+        <v>1720</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -9284,25 +9284,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9310,22 +9310,22 @@
         <v>64</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1161</v>
+        <v>1129</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1380</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9333,22 +9333,22 @@
         <v>65</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>946</v>
+        <v>921</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1162</v>
+        <v>1130</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1381</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9365,22 +9365,22 @@
         <v>66</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>947</v>
+        <v>922</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1163</v>
+        <v>1131</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>1382</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9397,22 +9397,22 @@
         <v>67</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1164</v>
+        <v>1132</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>1383</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9429,22 +9429,22 @@
         <v>68</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>949</v>
+        <v>924</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1165</v>
+        <v>1133</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>1384</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -9452,22 +9452,22 @@
         <v>69</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1166</v>
+        <v>1134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1385</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9484,22 +9484,22 @@
         <v>70</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1386</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90">
@@ -9507,22 +9507,22 @@
         <v>71</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>952</v>
+        <v>927</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1168</v>
+        <v>1136</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1387</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9539,22 +9539,22 @@
         <v>72</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1169</v>
+        <v>1137</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1388</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
@@ -9562,22 +9562,22 @@
         <v>73</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1170</v>
+        <v>1138</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1389</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -9907,11 +9907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9924,48 +9924,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9973,22 +9973,22 @@
         <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1143</v>
+        <v>1111</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1362</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10005,22 +10005,22 @@
         <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1144</v>
+        <v>1112</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1363</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10037,22 +10037,22 @@
         <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1145</v>
+        <v>1113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1364</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10069,22 +10069,22 @@
         <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10098,25 +10098,25 @@
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" s="6" t="s">
-        <v>1833</v>
+        <v>1788</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1827</v>
+        <v>1782</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1828</v>
+        <v>1783</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1829</v>
+        <v>1784</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1830</v>
+        <v>1785</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1831</v>
+        <v>1786</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1832</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
@@ -10124,22 +10124,22 @@
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1147</v>
+        <v>1115</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1366</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -10147,22 +10147,22 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>933</v>
+        <v>908</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1148</v>
+        <v>1116</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1367</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -10170,22 +10170,22 @@
         <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>934</v>
+        <v>909</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1149</v>
+        <v>1117</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1368</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -10193,22 +10193,22 @@
         <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1150</v>
+        <v>1118</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10225,22 +10225,22 @@
         <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>936</v>
+        <v>911</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1151</v>
+        <v>1119</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1370</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10257,22 +10257,22 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>937</v>
+        <v>912</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1152</v>
+        <v>1120</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1371</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10289,22 +10289,22 @@
         <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1153</v>
+        <v>1121</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1372</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10321,22 +10321,22 @@
         <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1154</v>
+        <v>1122</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1373</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10353,22 +10353,22 @@
         <v>57</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1155</v>
+        <v>1123</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1374</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10385,22 +10385,22 @@
         <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1156</v>
+        <v>1124</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1375</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10414,25 +10414,25 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>1624</v>
+        <v>1579</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1157</v>
+        <v>1125</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>1376</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10446,25 +10446,25 @@
     </row>
     <row r="31" spans="1:7" ht="60">
       <c r="A31" s="16" t="s">
-        <v>1625</v>
+        <v>1580</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1158</v>
+        <v>1126</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1377</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10481,91 +10481,91 @@
         <v>58</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1708</v>
+        <v>1663</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1709</v>
+        <v>1664</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1710</v>
+        <v>1665</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1711</v>
+        <v>1666</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1712</v>
+        <v>1667</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>1713</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45">
       <c r="A34" s="6" t="s">
-        <v>1806</v>
+        <v>1761</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1807</v>
+        <v>1762</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1808</v>
+        <v>1763</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1809</v>
+        <v>1764</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>1810</v>
+        <v>1765</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1811</v>
+        <v>1766</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>1812</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75">
       <c r="A35" s="6" t="s">
-        <v>1813</v>
+        <v>1768</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1815</v>
+        <v>1770</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1819</v>
+        <v>1774</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1817</v>
+        <v>1772</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1821</v>
+        <v>1776</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1823</v>
+        <v>1778</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1825</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="A36" s="6" t="s">
-        <v>1814</v>
+        <v>1769</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1816</v>
+        <v>1771</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1820</v>
+        <v>1775</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1818</v>
+        <v>1773</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1822</v>
+        <v>1777</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1824</v>
+        <v>1779</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>1826</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -10582,22 +10582,22 @@
         <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>944</v>
+        <v>919</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1159</v>
+        <v>1127</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="135">
@@ -10605,22 +10605,22 @@
         <v>52</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1762</v>
+        <v>1717</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1160</v>
+        <v>1128</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1379</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10887,7 +10887,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>1766</v>
+        <v>1721</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -10916,25 +10916,25 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10942,22 +10942,22 @@
         <v>74</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1202</v>
+        <v>1170</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -10976,22 +10976,22 @@
         <v>75</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -11010,22 +11010,22 @@
         <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1252</v>
+        <v>1220</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -11044,22 +11044,22 @@
         <v>77</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1253</v>
+        <v>1221</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -11078,22 +11078,22 @@
         <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1796</v>
+        <v>1751</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1797</v>
+        <v>1752</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1798</v>
+        <v>1753</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1799</v>
+        <v>1754</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -11112,22 +11112,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1802</v>
+        <v>1757</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1801</v>
+        <v>1756</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1803</v>
+        <v>1758</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1804</v>
+        <v>1759</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1805</v>
+        <v>1760</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -11145,22 +11145,22 @@
         <v>144</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1254</v>
+        <v>1222</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1454</v>
+        <v>1415</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -11169,22 +11169,22 @@
         <v>145</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1255</v>
+        <v>1223</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1455</v>
+        <v>1416</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -11203,22 +11203,22 @@
         <v>146</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -11227,22 +11227,22 @@
         <v>147</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1257</v>
+        <v>1225</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1456</v>
+        <v>1417</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -11261,22 +11261,22 @@
         <v>148</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1194</v>
+        <v>1162</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1411</v>
+        <v>1372</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -11285,22 +11285,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1258</v>
+        <v>1226</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>1412</v>
+        <v>1373</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -11309,22 +11309,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1196</v>
+        <v>1164</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>1413</v>
+        <v>1374</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -11333,22 +11333,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>1259</v>
+        <v>1227</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>1414</v>
+        <v>1375</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -11364,25 +11364,25 @@
     </row>
     <row r="26" spans="1:8" ht="45">
       <c r="A26" s="9" t="s">
-        <v>1578</v>
+        <v>1533</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1579</v>
+        <v>1534</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1581</v>
+        <v>1536</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1582</v>
+        <v>1537</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1583</v>
+        <v>1538</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>1584</v>
+        <v>1539</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>1580</v>
+        <v>1535</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -11400,22 +11400,22 @@
         <v>32</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1697</v>
+        <v>1652</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1698</v>
+        <v>1653</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1699</v>
+        <v>1654</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1700</v>
+        <v>1655</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1701</v>
+        <v>1656</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>1702</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -11423,22 +11423,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1662</v>
+        <v>1617</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1663</v>
+        <v>1618</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1664</v>
+        <v>1619</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1665</v>
+        <v>1620</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1666</v>
+        <v>1621</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>1667</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -11446,22 +11446,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1668</v>
+        <v>1623</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1669</v>
+        <v>1624</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1670</v>
+        <v>1625</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1671</v>
+        <v>1626</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1672</v>
+        <v>1627</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>1673</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -11469,22 +11469,22 @@
         <v>35</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1674</v>
+        <v>1629</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1675</v>
+        <v>1630</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1676</v>
+        <v>1631</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1677</v>
+        <v>1632</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1678</v>
+        <v>1633</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1679</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -11492,22 +11492,22 @@
         <v>36</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1680</v>
+        <v>1635</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1681</v>
+        <v>1636</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1682</v>
+        <v>1637</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1683</v>
+        <v>1638</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>1684</v>
+        <v>1639</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>1685</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -11515,22 +11515,22 @@
         <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1686</v>
+        <v>1641</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1687</v>
+        <v>1642</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1688</v>
+        <v>1643</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1689</v>
+        <v>1644</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1690</v>
+        <v>1645</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>1703</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -11538,22 +11538,22 @@
         <v>38</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1691</v>
+        <v>1646</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1692</v>
+        <v>1647</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1693</v>
+        <v>1648</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>1694</v>
+        <v>1649</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>1696</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11570,22 +11570,22 @@
         <v>39</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1197</v>
+        <v>1165</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1415</v>
+        <v>1376</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -11604,22 +11604,22 @@
         <v>40</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1260</v>
+        <v>1228</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1416</v>
+        <v>1377</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -11635,48 +11635,48 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6" t="s">
-        <v>1585</v>
+        <v>1540</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>1586</v>
+        <v>1541</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1587</v>
+        <v>1542</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>1588</v>
+        <v>1543</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1589</v>
+        <v>1544</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>1590</v>
+        <v>1545</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>1591</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" s="9" t="s">
-        <v>1592</v>
+        <v>1547</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1593</v>
+        <v>1548</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1594</v>
+        <v>1549</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1595</v>
+        <v>1550</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1596</v>
+        <v>1551</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>1597</v>
+        <v>1552</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>1598</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30">
@@ -11684,22 +11684,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1599</v>
+        <v>1554</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1601</v>
+        <v>1556</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>1602</v>
+        <v>1557</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>1603</v>
+        <v>1558</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>1604</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30">
@@ -11707,22 +11707,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1605</v>
+        <v>1560</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1606</v>
+        <v>1561</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>1607</v>
+        <v>1562</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>1608</v>
+        <v>1563</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>1609</v>
+        <v>1564</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>1610</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
@@ -11730,22 +11730,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1611</v>
+        <v>1566</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1612</v>
+        <v>1567</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1613</v>
+        <v>1568</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>1614</v>
+        <v>1569</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>1615</v>
+        <v>1570</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>1616</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30">
@@ -11753,22 +11753,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1617</v>
+        <v>1572</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1618</v>
+        <v>1573</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1619</v>
+        <v>1574</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>1620</v>
+        <v>1575</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1621</v>
+        <v>1576</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>1622</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -11785,22 +11785,22 @@
         <v>149</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1200</v>
+        <v>1168</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1417</v>
+        <v>1378</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -11819,22 +11819,22 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1201</v>
+        <v>1169</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1418</v>
+        <v>1379</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -11969,7 +11969,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>1767</v>
+        <v>1722</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -11998,25 +11998,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -12024,22 +12024,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1171</v>
+        <v>1139</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1394</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12056,22 +12056,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1172</v>
+        <v>1140</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1395</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12088,22 +12088,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1396</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12120,22 +12120,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1174</v>
+        <v>1142</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1397</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12152,22 +12152,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1175</v>
+        <v>1143</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>1398</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12184,22 +12184,22 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1176</v>
+        <v>1144</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1399</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12216,22 +12216,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12248,22 +12248,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1177</v>
+        <v>1145</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1400</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12280,22 +12280,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1178</v>
+        <v>1146</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1401</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12312,22 +12312,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1179</v>
+        <v>1147</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1402</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12344,22 +12344,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1180</v>
+        <v>1148</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>1403</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -12376,22 +12376,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1181</v>
+        <v>1149</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1404</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12408,22 +12408,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1182</v>
+        <v>1150</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1771</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12440,22 +12440,22 @@
         <v>13</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1772</v>
+        <v>1727</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1773</v>
+        <v>1728</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1774</v>
+        <v>1729</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1775</v>
+        <v>1730</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1776</v>
+        <v>1731</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>1777</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12472,22 +12472,22 @@
         <v>14</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1183</v>
+        <v>1151</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>1405</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -12504,22 +12504,22 @@
         <v>15</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1184</v>
+        <v>1152</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1788</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -12536,22 +12536,22 @@
         <v>16</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>1185</v>
+        <v>1153</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -12568,22 +12568,22 @@
         <v>17</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1186</v>
+        <v>1154</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -12600,22 +12600,22 @@
         <v>18</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1187</v>
+        <v>1155</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1407</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12632,22 +12632,22 @@
         <v>19</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1188</v>
+        <v>1156</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1408</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12664,22 +12664,22 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1571</v>
+        <v>1526</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1572</v>
+        <v>1527</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1573</v>
+        <v>1528</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1574</v>
+        <v>1529</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1575</v>
+        <v>1530</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1409</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12696,22 +12696,22 @@
         <v>21</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1566</v>
+        <v>1521</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1569</v>
+        <v>1524</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1567</v>
+        <v>1522</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>1568</v>
+        <v>1523</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1570</v>
+        <v>1525</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1565</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12728,22 +12728,22 @@
         <v>22</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1189</v>
+        <v>1157</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1576</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -12760,22 +12760,22 @@
         <v>23</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1802</v>
+        <v>1757</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1801</v>
+        <v>1756</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1803</v>
+        <v>1758</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1804</v>
+        <v>1759</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1805</v>
+        <v>1760</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1800</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12792,22 +12792,22 @@
         <v>24</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1190</v>
+        <v>1158</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1454</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12824,22 +12824,22 @@
         <v>25</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1191</v>
+        <v>1159</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1410</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12856,22 +12856,22 @@
         <v>26</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>1192</v>
+        <v>1160</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12888,22 +12888,22 @@
         <v>27</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>1193</v>
+        <v>1161</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1577</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12920,22 +12920,22 @@
         <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1194</v>
+        <v>1162</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1789</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -12952,22 +12952,22 @@
         <v>29</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1412</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -12984,22 +12984,22 @@
         <v>30</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1196</v>
+        <v>1164</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1413</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -13016,22 +13016,22 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>1784</v>
+        <v>1739</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1785</v>
+        <v>1740</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1786</v>
+        <v>1741</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>1787</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13045,25 +13045,25 @@
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="9" t="s">
-        <v>1578</v>
+        <v>1533</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1579</v>
+        <v>1534</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1581</v>
+        <v>1536</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1582</v>
+        <v>1537</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>1583</v>
+        <v>1538</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1584</v>
+        <v>1539</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>1580</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13080,22 +13080,22 @@
         <v>32</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1697</v>
+        <v>1652</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1698</v>
+        <v>1653</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1699</v>
+        <v>1654</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1700</v>
+        <v>1655</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1701</v>
+        <v>1656</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1702</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -13103,22 +13103,22 @@
         <v>33</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1662</v>
+        <v>1617</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1663</v>
+        <v>1618</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1664</v>
+        <v>1619</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>1665</v>
+        <v>1620</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>1666</v>
+        <v>1621</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>1667</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -13126,22 +13126,22 @@
         <v>34</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1668</v>
+        <v>1623</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1669</v>
+        <v>1624</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1670</v>
+        <v>1625</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>1671</v>
+        <v>1626</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>1672</v>
+        <v>1627</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1673</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -13149,22 +13149,22 @@
         <v>35</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1674</v>
+        <v>1629</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1675</v>
+        <v>1630</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1676</v>
+        <v>1631</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>1677</v>
+        <v>1632</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>1678</v>
+        <v>1633</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1679</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -13172,22 +13172,22 @@
         <v>36</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1680</v>
+        <v>1635</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1681</v>
+        <v>1636</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1682</v>
+        <v>1637</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1683</v>
+        <v>1638</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>1684</v>
+        <v>1639</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1685</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -13195,22 +13195,22 @@
         <v>37</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>1686</v>
+        <v>1641</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1687</v>
+        <v>1642</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1688</v>
+        <v>1643</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1689</v>
+        <v>1644</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>1690</v>
+        <v>1645</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1703</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -13218,22 +13218,22 @@
         <v>38</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1691</v>
+        <v>1646</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1692</v>
+        <v>1647</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1693</v>
+        <v>1648</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1694</v>
+        <v>1649</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1696</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -13250,22 +13250,22 @@
         <v>39</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1198</v>
+        <v>1166</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1415</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -13282,22 +13282,22 @@
         <v>40</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1199</v>
+        <v>1167</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1416</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -13311,48 +13311,48 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
-        <v>1585</v>
+        <v>1540</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>1778</v>
+        <v>1733</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>1779</v>
+        <v>1734</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>1780</v>
+        <v>1735</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>1781</v>
+        <v>1736</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>1782</v>
+        <v>1737</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>1783</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="9" t="s">
-        <v>1592</v>
+        <v>1547</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>1593</v>
+        <v>1548</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1594</v>
+        <v>1549</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>1595</v>
+        <v>1550</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>1596</v>
+        <v>1551</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>1597</v>
+        <v>1552</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>1598</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30">
@@ -13360,22 +13360,22 @@
         <v>41</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>1599</v>
+        <v>1554</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>1601</v>
+        <v>1556</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>1602</v>
+        <v>1557</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>1603</v>
+        <v>1558</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>1604</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30">
@@ -13383,22 +13383,22 @@
         <v>42</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>1605</v>
+        <v>1560</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1606</v>
+        <v>1561</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>1607</v>
+        <v>1562</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>1608</v>
+        <v>1563</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>1609</v>
+        <v>1564</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>1610</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30">
@@ -13406,22 +13406,22 @@
         <v>43</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>1611</v>
+        <v>1566</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1612</v>
+        <v>1567</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>1613</v>
+        <v>1568</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>1614</v>
+        <v>1569</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>1615</v>
+        <v>1570</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>1616</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30">
@@ -13429,22 +13429,22 @@
         <v>44</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>1617</v>
+        <v>1572</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>1618</v>
+        <v>1573</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>1619</v>
+        <v>1574</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>1620</v>
+        <v>1575</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>1621</v>
+        <v>1576</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>1622</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -13461,22 +13461,22 @@
         <v>45</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1200</v>
+        <v>1168</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>1417</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13493,22 +13493,22 @@
         <v>46</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>1201</v>
+        <v>1169</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>1418</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>
@@ -13536,7 +13536,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>1768</v>
+        <v>1723</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -13565,25 +13565,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13591,22 +13591,22 @@
         <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1202</v>
+        <v>1170</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13623,22 +13623,22 @@
         <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1203</v>
+        <v>1171</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13655,22 +13655,22 @@
         <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1204</v>
+        <v>1172</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13687,22 +13687,22 @@
         <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1205</v>
+        <v>1173</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13719,22 +13719,22 @@
         <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1206</v>
+        <v>1174</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13751,22 +13751,22 @@
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1207</v>
+        <v>1175</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13783,22 +13783,22 @@
         <v>80</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1208</v>
+        <v>1176</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13815,22 +13815,22 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1790</v>
+        <v>1745</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1791</v>
+        <v>1746</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1792</v>
+        <v>1747</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1793</v>
+        <v>1748</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1794</v>
+        <v>1749</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1795</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13847,22 +13847,22 @@
         <v>82</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1209</v>
+        <v>1177</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13879,22 +13879,22 @@
         <v>83</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1210</v>
+        <v>1178</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13908,25 +13908,25 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>964</v>
+        <v>939</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1211</v>
+        <v>1179</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -13940,25 +13940,25 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1212</v>
+        <v>1180</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13972,25 +13972,25 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1213</v>
+        <v>1181</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1390</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14004,25 +14004,25 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1214</v>
+        <v>1182</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>1391</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -14039,22 +14039,22 @@
         <v>84</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1215</v>
+        <v>1183</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
@@ -14070,25 +14070,25 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="15" t="s">
-        <v>1623</v>
+        <v>1578</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1216</v>
+        <v>1184</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>1392</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14102,25 +14102,25 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14134,25 +14134,25 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>1217</v>
+        <v>1185</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14166,25 +14166,25 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1218</v>
+        <v>1186</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1393</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14201,22 +14201,22 @@
         <v>16</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>1185</v>
+        <v>1153</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14233,22 +14233,22 @@
         <v>86</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1219</v>
+        <v>1187</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -14262,25 +14262,25 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>1220</v>
+        <v>1188</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -14294,25 +14294,25 @@
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="A47" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>1221</v>
+        <v>1189</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -14579,7 +14579,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>1769</v>
+        <v>1724</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -14608,25 +14608,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60">
@@ -14634,22 +14634,22 @@
         <v>87</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1003</v>
+        <v>978</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1222</v>
+        <v>1190</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1420</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14666,22 +14666,22 @@
         <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14698,22 +14698,22 @@
         <v>89</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1223</v>
+        <v>1191</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1421</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14742,7 +14742,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1224</v>
+        <v>1192</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>90</v>
@@ -14762,22 +14762,22 @@
         <v>91</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1005</v>
+        <v>980</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1225</v>
+        <v>1193</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1422</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14794,22 +14794,22 @@
         <v>92</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1423</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -14826,22 +14826,22 @@
         <v>93</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1226</v>
+        <v>1194</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1424</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14867,13 +14867,13 @@
         <v>94</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1007</v>
+        <v>982</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14890,22 +14890,22 @@
         <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1714</v>
+        <v>1669</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1227</v>
+        <v>1195</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>1425</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14931,7 +14931,7 @@
         <v>96</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>96</v>
@@ -14954,22 +14954,22 @@
         <v>97</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1715</v>
+        <v>1670</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1010</v>
+        <v>985</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1704</v>
+        <v>1659</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>1426</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -15018,22 +15018,22 @@
         <v>99</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1716</v>
+        <v>1671</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1011</v>
+        <v>986</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1705</v>
+        <v>1660</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>1427</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -15082,22 +15082,22 @@
         <v>101</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1717</v>
+        <v>1672</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1012</v>
+        <v>987</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1706</v>
+        <v>1661</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>1428</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -15146,22 +15146,22 @@
         <v>103</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1718</v>
+        <v>1673</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1228</v>
+        <v>1196</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1429</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -15210,22 +15210,22 @@
         <v>105</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1719</v>
+        <v>1674</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1707</v>
+        <v>1662</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>1430</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -15274,22 +15274,22 @@
         <v>107</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1720</v>
+        <v>1675</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1229</v>
+        <v>1197</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>1431</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -15338,22 +15338,22 @@
         <v>109</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>1230</v>
+        <v>1198</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>1432</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15402,22 +15402,22 @@
         <v>111</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1231</v>
+        <v>1199</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1433</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -15437,13 +15437,13 @@
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>112</v>
@@ -15466,22 +15466,22 @@
         <v>113</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1232</v>
+        <v>1200</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>1434</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -15498,22 +15498,22 @@
         <v>114</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1233</v>
+        <v>1201</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1435</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -15545,7 +15545,7 @@
         <v>115</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>1436</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -15562,22 +15562,22 @@
         <v>116</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>1234</v>
+        <v>1202</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1437</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -15606,7 +15606,7 @@
         <v>117</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1224</v>
+        <v>1192</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>117</v>
@@ -15626,22 +15626,22 @@
         <v>118</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1235</v>
+        <v>1203</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -15670,10 +15670,10 @@
         <v>119</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>1236</v>
+        <v>1204</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>1439</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -15690,22 +15690,22 @@
         <v>120</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1237</v>
+        <v>1205</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1440</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -15728,13 +15728,13 @@
         <v>121</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>121</v>
@@ -15754,22 +15754,22 @@
         <v>122</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>1238</v>
+        <v>1206</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1441</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -15795,7 +15795,7 @@
         <v>123</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>123</v>
@@ -15818,22 +15818,22 @@
         <v>124</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>1442</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -15882,22 +15882,22 @@
         <v>126</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>1239</v>
+        <v>1207</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1443</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -15926,7 +15926,7 @@
         <v>127</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>1240</v>
+        <v>1208</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>127</v>
@@ -15946,22 +15946,22 @@
         <v>128</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1028</v>
+        <v>1003</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1444</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -16010,22 +16010,22 @@
         <v>130</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>1242</v>
+        <v>1210</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>1445</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -16074,22 +16074,22 @@
         <v>132</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1243</v>
+        <v>1211</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>1446</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -16138,22 +16138,22 @@
         <v>134</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1244</v>
+        <v>1212</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>1447</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -16182,7 +16182,7 @@
         <v>135</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>1245</v>
+        <v>1213</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>135</v>
@@ -16202,22 +16202,22 @@
         <v>136</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>1230</v>
+        <v>1198</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1432</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -16243,13 +16243,13 @@
         <v>137</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>1246</v>
+        <v>1214</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1448</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -16266,22 +16266,22 @@
         <v>138</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>1231</v>
+        <v>1199</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1449</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -16301,16 +16301,16 @@
         <v>139</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>1247</v>
+        <v>1215</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>139</v>
@@ -16330,22 +16330,22 @@
         <v>140</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>1232</v>
+        <v>1200</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>1450</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -16362,22 +16362,22 @@
         <v>141</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>1248</v>
+        <v>1216</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>1451</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -16400,16 +16400,16 @@
         <v>142</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>1249</v>
+        <v>1217</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1452</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -16426,22 +16426,22 @@
         <v>143</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>1250</v>
+        <v>1218</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>1453</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -16504,7 +16504,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>1770</v>
+        <v>1725</v>
       </c>
       <c r="B1" s="18" t="str">
         <f>A1</f>
@@ -16533,25 +16533,25 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -16559,22 +16559,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1261</v>
+        <v>1229</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1457</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -16591,22 +16591,22 @@
         <v>151</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1262</v>
+        <v>1230</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1458</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16623,22 +16623,22 @@
         <v>152</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1263</v>
+        <v>1231</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1459</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16655,22 +16655,22 @@
         <v>153</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1264</v>
+        <v>1232</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1460</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16687,22 +16687,22 @@
         <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1265</v>
+        <v>1233</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1461</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16719,22 +16719,22 @@
         <v>155</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1266</v>
+        <v>1234</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1462</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="1:7">
